--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orson\Documents\GitHub\vis_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{F3634C8D-F8BF-43E3-BB82-B345E329A464}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90900928-1BE7-456A-ACF8-3834E907DB93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64E70B4A-0E7A-4C96-85EB-EDBFB79676A8}"/>
   </bookViews>
@@ -34,10 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="33" uniqueCount="33">
-  <si>
-    <t>Passengers_In</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="34" uniqueCount="34">
   <si>
     <t>Brunei</t>
   </si>
@@ -133,6 +130,12 @@
   </si>
   <si>
     <t>Western Samoa</t>
+  </si>
+  <si>
+    <t>country</t>
+  </si>
+  <si>
+    <t>passengers</t>
   </si>
 </sst>
 </file>
@@ -486,19 +489,22 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:B33"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>32</v>
+      </c>
       <c r="B1" t="s">
-        <v>0</v>
+        <v>33</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="B2">
         <v>6924</v>
@@ -506,7 +512,7 @@
     </row>
     <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="B3">
         <v>24860</v>
@@ -514,7 +520,7 @@
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="B4">
         <v>12877</v>
@@ -522,7 +528,7 @@
     </row>
     <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="B5">
         <v>201740</v>
@@ -530,7 +536,7 @@
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="B6">
         <v>1192</v>
@@ -538,7 +544,7 @@
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B7">
         <v>45807</v>
@@ -546,7 +552,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B8">
         <v>144679</v>
@@ -554,7 +560,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B9">
         <v>7414</v>
@@ -562,7 +568,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B10">
         <v>143287</v>
@@ -570,7 +576,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B11">
         <v>73281</v>
@@ -578,7 +584,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B12">
         <v>33654</v>
@@ -586,7 +592,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B13">
         <v>122707</v>
@@ -594,7 +600,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14">
         <v>4410</v>
@@ -602,7 +608,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15">
         <v>796</v>
@@ -610,7 +616,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B16">
         <v>10338</v>
@@ -618,7 +624,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B17">
         <v>355141</v>
@@ -626,7 +632,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B18">
         <v>10904</v>
@@ -634,7 +640,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B19">
         <v>30503</v>
@@ -642,7 +648,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B20">
         <v>48096</v>
@@ -650,7 +656,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B21">
         <v>267931</v>
@@ -658,7 +664,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B22">
         <v>2087</v>
@@ -666,7 +672,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B23">
         <v>14917</v>
@@ -674,7 +680,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B24">
         <v>7913</v>
@@ -682,7 +688,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B25">
         <v>27952</v>
@@ -690,7 +696,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B26">
         <v>78714</v>
@@ -698,7 +704,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B27">
         <v>1294</v>
@@ -706,7 +712,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B28">
         <v>19373</v>
@@ -714,7 +720,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B29">
         <v>201476</v>
@@ -722,7 +728,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B30">
         <v>161713</v>
@@ -730,7 +736,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B31">
         <v>8765</v>
@@ -738,7 +744,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B32">
         <v>25635</v>
@@ -746,7 +752,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B33">
         <v>2025</v>

--- a/data/Book1.xlsx
+++ b/data/Book1.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orson\Documents\GitHub\vis_2\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{90900928-1BE7-456A-ACF8-3834E907DB93}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8F62DC59-0B1D-4C20-8413-C599697B390A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{64E70B4A-0E7A-4C96-85EB-EDBFB79676A8}"/>
   </bookViews>
@@ -54,9 +54,6 @@
     <t>Fiji</t>
   </si>
   <si>
-    <t>Hong Kong (SAR)</t>
-  </si>
-  <si>
     <t>India</t>
   </si>
   <si>
@@ -120,9 +117,6 @@
     <t>United Arab Emirates</t>
   </si>
   <si>
-    <t>USA</t>
-  </si>
-  <si>
     <t>Vanuatu</t>
   </si>
   <si>
@@ -136,6 +130,12 @@
   </si>
   <si>
     <t>passengers</t>
+  </si>
+  <si>
+    <t>Unites States of America</t>
+  </si>
+  <si>
+    <t>Hong Kong</t>
   </si>
 </sst>
 </file>
@@ -489,17 +489,21 @@
   <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="A8" sqref="A8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <cols>
+    <col min="1" max="1" width="21.25" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.25" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B1" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.2">
@@ -552,7 +556,7 @@
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
-        <v>6</v>
+        <v>33</v>
       </c>
       <c r="B8">
         <v>144679</v>
@@ -560,7 +564,7 @@
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="B9">
         <v>7414</v>
@@ -568,7 +572,7 @@
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="B10">
         <v>143287</v>
@@ -576,7 +580,7 @@
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B11">
         <v>73281</v>
@@ -584,7 +588,7 @@
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="B12">
         <v>33654</v>
@@ -592,7 +596,7 @@
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B13">
         <v>122707</v>
@@ -600,7 +604,7 @@
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B14">
         <v>4410</v>
@@ -608,7 +612,7 @@
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B15">
         <v>796</v>
@@ -616,7 +620,7 @@
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16">
         <v>10338</v>
@@ -624,7 +628,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17">
         <v>355141</v>
@@ -632,7 +636,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B18">
         <v>10904</v>
@@ -640,7 +644,7 @@
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B19">
         <v>30503</v>
@@ -648,7 +652,7 @@
     </row>
     <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B20">
         <v>48096</v>
@@ -656,7 +660,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B21">
         <v>267931</v>
@@ -664,7 +668,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B22">
         <v>2087</v>
@@ -672,7 +676,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B23">
         <v>14917</v>
@@ -680,7 +684,7 @@
     </row>
     <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B24">
         <v>7913</v>
@@ -688,7 +692,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B25">
         <v>27952</v>
@@ -696,7 +700,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B26">
         <v>78714</v>
@@ -704,7 +708,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B27">
         <v>1294</v>
@@ -712,7 +716,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B28">
         <v>19373</v>
@@ -720,7 +724,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B29">
         <v>201476</v>
@@ -728,7 +732,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
-        <v>28</v>
+        <v>32</v>
       </c>
       <c r="B30">
         <v>161713</v>
@@ -736,7 +740,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B31">
         <v>8765</v>
@@ -744,7 +748,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B32">
         <v>25635</v>
@@ -752,7 +756,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B33">
         <v>2025</v>
